--- a/programs/autoencoder/saving_scaled.xlsx
+++ b/programs/autoencoder/saving_scaled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,67 +503,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6144149899482727</v>
+        <v>0.8212016820907593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266221284866333</v>
+        <v>0.002799838781356812</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.02563954889774323</v>
+        <v>0.005999460816383362</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2513894140720367</v>
+        <v>0.005441371351480484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2516245245933533</v>
+        <v>0.002780705690383911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2533555030822754</v>
+        <v>2.818554639816284e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2102489471435547</v>
+        <v>0.790806770324707</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1331238895654678</v>
+        <v>0.1868070811033249</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.03050913289189339</v>
+        <v>0.5279639959335327</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3240061700344086</v>
+        <v>0.003530390560626984</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08972156792879105</v>
+        <v>0.3211595118045807</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3269849121570587</v>
+        <v>0.4115458428859711</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2083360701799393</v>
+        <v>0.2640601098537445</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2506866753101349</v>
+        <v>0.4914207756519318</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2341609299182892</v>
+        <v>0.3600763380527496</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.006643179804086685</v>
+        <v>0.3242122232913971</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1878794729709625</v>
+        <v>0.001354515552520752</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09648355841636658</v>
+        <v>0.5315094590187073</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4486810266971588</v>
+        <v>0.2150039374828339</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03571739047765732</v>
+        <v>0.03500605374574661</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1688984632492065</v>
+        <v>-0.001961153000593185</v>
       </c>
     </row>
     <row r="3">
@@ -571,67 +571,67 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.642676830291748</v>
+        <v>0.7810370922088623</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2967726588249207</v>
+        <v>0.01163928210735321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05231769010424614</v>
+        <v>0.08647258579730988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2620519399642944</v>
+        <v>0.01896775513887405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2957526743412018</v>
+        <v>0.0129116028547287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2316333800554276</v>
+        <v>0.02197475358843803</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2020198404788971</v>
+        <v>0.4250743389129639</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08756837248802185</v>
+        <v>0.2021139413118362</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09604406356811523</v>
+        <v>0.3664465546607971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3234078884124756</v>
+        <v>0.03260035440325737</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06037845462560654</v>
+        <v>0.4500828683376312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3438173234462738</v>
+        <v>0.5972869396209717</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1749241650104523</v>
+        <v>0.2760802209377289</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2995492517948151</v>
+        <v>0.417573481798172</v>
       </c>
       <c r="P3" t="n">
-        <v>0.185438334941864</v>
+        <v>0.3393079340457916</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.03588894754648209</v>
+        <v>0.3674085438251495</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2271970212459564</v>
+        <v>0.003378808498382568</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2049906998872757</v>
+        <v>0.4865771234035492</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3395044505596161</v>
+        <v>0.1704442203044891</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08657798171043396</v>
+        <v>0.0545010045170784</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1444059461355209</v>
+        <v>-0.002093952149152756</v>
       </c>
     </row>
     <row r="4">
@@ -639,67 +639,67 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.733035147190094</v>
+        <v>0.8064932823181152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1168888360261917</v>
+        <v>-0.003468070179224014</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05585096776485443</v>
+        <v>-0.003895185887813568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.126408264040947</v>
+        <v>0.003427956253290176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1256359368562698</v>
+        <v>-0.004918195307254791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1163515821099281</v>
+        <v>-0.001951031386852264</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2441650629043579</v>
+        <v>0.5134275555610657</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1372735500335693</v>
+        <v>0.07591734826564789</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04360995441675186</v>
+        <v>0.2663033902645111</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2346179783344269</v>
+        <v>0.02142651006579399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007728001568466425</v>
+        <v>0.264720231294632</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1592610329389572</v>
+        <v>0.281840592622757</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2155878841876984</v>
+        <v>0.2610584497451782</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4135262370109558</v>
+        <v>0.4707265794277191</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2948984205722809</v>
+        <v>0.4730615019798279</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.11772221326828</v>
+        <v>0.3623802065849304</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09673382341861725</v>
+        <v>0.003071948885917664</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3325691819190979</v>
+        <v>0.5253487825393677</v>
       </c>
       <c r="T4" t="n">
-        <v>0.247983992099762</v>
+        <v>0.218610554933548</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06463298946619034</v>
+        <v>0.03786455094814301</v>
       </c>
       <c r="V4" t="n">
-        <v>0.07178768515586853</v>
+        <v>-0.001194309443235397</v>
       </c>
     </row>
     <row r="5">
@@ -707,67 +707,5303 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6591832041740417</v>
+        <v>0.8252899646759033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2602794766426086</v>
+        <v>-0.00965610146522522</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01777579635381699</v>
+        <v>0.002222597599029541</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2368436306715012</v>
+        <v>-0.002588719129562378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2506077289581299</v>
+        <v>-0.01323731243610382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1999126076698303</v>
+        <v>-0.01270819455385208</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2061423361301422</v>
+        <v>0.4352644085884094</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09950287640094757</v>
+        <v>0.0872688889503479</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.05932287126779556</v>
+        <v>0.4352412521839142</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3085699379444122</v>
+        <v>0.01979317516088486</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03949251025915146</v>
+        <v>0.3106974065303802</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3237742781639099</v>
+        <v>0.3654849529266357</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1826262325048447</v>
+        <v>0.2591900527477264</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3334215581417084</v>
+        <v>0.4645654559135437</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1717199832201004</v>
+        <v>0.4375837743282318</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01005961745977402</v>
+        <v>0.3865992724895477</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1975745856761932</v>
+        <v>-0.001090124249458313</v>
       </c>
       <c r="S5" t="n">
-        <v>0.22352534532547</v>
+        <v>0.5362623929977417</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3131872713565826</v>
+        <v>0.2112691402435303</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07132671028375626</v>
+        <v>0.02375003322958946</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1260127872228622</v>
+        <v>-0.007685098797082901</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8171190023422241</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.00403677299618721</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0005626529455184937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003520939499139786</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.004713721573352814</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.001376397907733917</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5343528985977173</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08846978843212128</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3137772679328918</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01825501769781113</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2769429087638855</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3057319819927216</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2624126374721527</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4788730144500732</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.4658230841159821</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.358812004327774</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.00369928777217865</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.5306963920593262</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2208986878395081</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.03675583750009537</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.002344090491533279</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7694465517997742</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02172943577170372</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1693757474422455</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03556721657514572</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04082817956805229</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05663662031292915</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4106035530567169</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2808725535869598</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6524987816810608</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04845694452524185</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5548875331878662</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7613987922668457</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2728845179080963</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.3991850018501282</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3013086915016174</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3686047494411469</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.01532693207263947</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.4929861724376678</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1566954851150513</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.05901492387056351</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01286736503243446</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7705354690551758</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01961483806371689</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01766567677259445</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.002527728676795959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00220942497253418</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.01631560176610947</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.01224946975708</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2437918931245804</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7424954175949097</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.04187323153018951</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3831174671649933</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4731978476047516</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2939358055591583</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.526235818862915</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3247620761394501</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3242024481296539</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.02317442744970322</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5187793374061584</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.2434671521186829</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.04861659556627274</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.01759375259280205</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8083766102790833</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00239890068769455</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.03442814201116562</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005727402865886688</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.003249883651733398</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.001903489232063293</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4030046164989471</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1332336664199829</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5196040868759155</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02153125032782555</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3677729368209839</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4561766982078552</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2565263211727142</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.457400918006897</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3741402626037598</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3796249330043793</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0009312555193901062</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5256218314170837</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1940047144889832</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.03195576742291451</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.005786683410406113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8106027245521545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005363058298826218</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.04440389573574066</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00701504573225975</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.002696052193641663</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.0009591132402420044</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4178957343101501</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1414260864257812</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5629709362983704</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02897516265511513</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3562132716178894</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4554102420806885</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2510069310665131</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4613435864448547</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.357433408498764</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3723570704460144</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.00310041755437851</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5385339856147766</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1937674283981323</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.02298633754253387</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.007013212889432907</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8054322600364685</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.006917152553796768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.01008761674165726</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.009996633976697922</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01561342924833298</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.006199996918439865</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8214293122291565</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1818535625934601</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4880922138690948</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01042433083057404</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2717562019824982</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3321055769920349</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.2610333859920502</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4942668974399567</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3691563904285431</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3092788457870483</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.007083114236593246</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5107789635658264</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.2215110063552856</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.04296833276748657</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.003078427165746689</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8151169419288635</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.003032218664884567</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06695076823234558</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0006738714873790741</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.001897148787975311</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.0003257393836975098</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5499672889709473</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1096738874912262</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1956551373004913</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.05221797525882721</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1469120979309082</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.117230623960495</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2552047967910767</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4759053885936737</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.5504171252250671</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3414497375488281</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.004543084651231766</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.492045134305954</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2088669836521149</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.03918619453907013</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01123137399554253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7916120290756226</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.004311967641115189</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05890174210071564</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01654637977480888</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.008074760437011719</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01291158422827721</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3985672891139984</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3256868422031403</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8151223063468933</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.05599083006381989</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4759849905967712</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6606781482696533</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2509511709213257</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.4441255629062653</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2884215712547302</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3618372976779938</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.001174204051494598</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.52007657289505</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.1860695332288742</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.03742626309394836</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.01437901332974434</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.796684741973877</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.006134491413831711</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.007965005934238434</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.005370195955038071</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01006945967674255</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.002277031540870667</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9142165184020996</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1940003782510757</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5552063584327698</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01090139150619507</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3069503307342529</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3808082044124603</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2690493762493134</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4966937899589539</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3458424508571625</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3139969408512115</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.002240560948848724</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.5139878392219543</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2278729677200317</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.03800363093614578</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-0.004388336092233658</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8242235779762268</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.009687401354312897</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.01037005335092545</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.001557387411594391</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01299004256725311</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.01106193661689758</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4445891678333282</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06051934137940407</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.355800449848175</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01828247308731079</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2961107194423676</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3314593732357025</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2615032494068146</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.4616168737411499</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4746141135692596</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3880748152732849</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.0008324757218360901</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.5298530459403992</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2168192267417908</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.02820063382387161</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.006643768399953842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8120547533035278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0106012262403965</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.003953307867050171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0138024240732193</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02139189094305038</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01406307891011238</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7382335662841797</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1760448813438416</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4341486394405365</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01230725646018982</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2476546764373779</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2916001975536346</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2578420341014862</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4972114861011505</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3968382775783539</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3080856800079346</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.01440300792455673</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5107188820838928</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2171011865139008</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.05072550475597382</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.007453393191099167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8325431942939758</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.005477298051118851</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.003644548356533051</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.003581508994102478</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.00588274747133255</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.002288602292537689</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5458027720451355</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08787314593791962</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3739587366580963</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01546378433704376</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2969385981559753</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3423658609390259</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2635506093502045</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.48629429936409</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4588134586811066</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3574490249156952</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.003749534487724304</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5360550880432129</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2214699983596802</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.03274046257138252</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-0.004464257508516312</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7877277135848999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04190142080187798</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.04149554669857025</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.03183206170797348</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.06641823053359985</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.06656511127948761</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3376221358776093</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1205139309167862</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03974562138319016</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1234151124954224</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.09293528646230698</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1136860996484756</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2417791336774826</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.439262330532074</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5048586130142212</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2681542038917542</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04792531579732895</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.4634562134742737</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.1949690878391266</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.04562073200941086</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.03100712597370148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8190980553627014</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.008330687880516052</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.01201795786619186</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.002478815615177155</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01749490201473236</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.01277084648609161</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4227144122123718</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.05988305434584618</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3556080162525177</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01471532881259918</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3143997490406036</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3533448576927185</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2653884291648865</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4526036381721497</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4680446982383728</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3979839980602264</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.004187710583209991</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5203703045845032</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2135207056999207</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0280265100300312</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.007591400295495987</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8022580742835999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.002826210111379623</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.006162345409393311</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.003533408045768738</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.003904186189174652</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.00120052695274353</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5137946605682373</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.07928158342838287</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2470151484012604</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02225648611783981</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2568014860153198</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2675878703594208</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2606092095375061</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.468628466129303</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4764177203178406</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3626950085163116</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.00310564786195755</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.523950457572937</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2186450362205505</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.03903800994157791</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.0003132782876491547</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8220691680908203</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0006855949759483337</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.004454396665096283</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.006945032626390457</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.002691477537155151</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.005478404462337494</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5982897281646729</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1402221322059631</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3714562356472015</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01052726805210114</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2811638712882996</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3238644897937775</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2640434205532074</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.4925417900085449</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.4388346970081329</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3429463505744934</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.007391847670078278</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5364286303520203</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.222404420375824</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.04236593842506409</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-2.35922634601593e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8135339617729187</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.002110004425048828</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.006352886557579041</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.007100507616996765</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.005694039165973663</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.006575129926204681</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6102685928344727</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1531125903129578</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2969610691070557</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01594015955924988</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2399629354476929</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2638046443462372</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2545917332172394</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4810772240161896</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4636284112930298</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3413018882274628</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.006604783236980438</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5232824087142944</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2187531888484955</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.04816762357950211</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.003824222832918167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7971002459526062</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.007739424705505371</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01055371761322021</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001106921583414078</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.005461633205413818</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.01430036872625351</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8089191317558289</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2073251754045486</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6930630803108215</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.03028982132673264</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.362237423658371</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4841442704200745</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2621074914932251</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.4900521636009216</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.3081701099872589</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3313156366348267</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.01017492264509201</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.5249818563461304</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2099935114383698</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0194905698299408</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.005248960107564926</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7446470260620117</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0296960361301899</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.009114190936088562</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01827614009380341</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02811773866415024</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03026050329208374</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3711916506290436</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.05302799120545387</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.01355552673339844</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06001333892345428</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2002077400684357</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2114998996257782</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2603035271167755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.4204652309417725</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.4851241707801819</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3573742508888245</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.02328133210539818</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.4830008447170258</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1940746009349823</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.04144475609064102</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01428575441241264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8065430521965027</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.005347125232219696</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.01143471896648407</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.001388717442750931</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.01294540613889694</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.007331244647502899</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4230103492736816</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.04158940538764</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2582620978355408</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01853897422552109</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2904061079025269</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.311663031578064</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2608334720134735</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.4434467256069183</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.4940734207630157</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3957138359546661</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.002674125134944916</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.5147980451583862</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2178044319152832</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.03166444227099419</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.005976323038339615</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8322656154632568</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.002016250044107437</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01436492800712585</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.008615221828222275</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.004425473511219025</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.006110705435276031</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6132015585899353</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1384915262460709</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4265925586223602</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.008751802146434784</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3033079504966736</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3669567406177521</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2634420990943909</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.4955958724021912</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.4201448857784271</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3398125171661377</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.007384072989225388</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.5398845672607422</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2179868221282959</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.03766567260026932</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.001521583646535873</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8111900687217712</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.004784464836120605</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.003519997000694275</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.002779778093099594</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.006819382309913635</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.003724440932273865</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4978756606578827</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.06328999996185303</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2816133499145508</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02178435772657394</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2717509269714355</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2933695018291473</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2607373297214508</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.470531553030014</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.4738666415214539</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3646240830421448</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.002853378653526306</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.5259535908699036</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2177649438381195</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.03565286099910736</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.002302389591932297</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8346489667892456</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.005110442638397217</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.004821255803108215</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.003926660865545273</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.004691995680332184</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.001252412796020508</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5634512901306152</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1006916612386703</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3877102434635162</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0140053853392601</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.2985257804393768</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3467211723327637</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2644312381744385</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.489864856004715</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.4548672437667847</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3549365103244781</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.004070006310939789</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.5384212136268616</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2228482663631439</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0333331897854805</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.004471886903047562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7761866450309753</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0144185982644558</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.07633136957883835</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01679961010813713</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.009496778249740601</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01487429812550545</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4647135138511658</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1837335526943207</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2392165064811707</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0279560424387455</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4248922169208527</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5626895427703857</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2765394449234009</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.4172332584857941</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.349265456199646</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3688652217388153</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.002321779727935791</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.4798476696014404</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.1640989780426025</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.05516890436410904</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.005964901298284531</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8316585421562195</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.007438655942678452</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01593606173992157</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001522045582532883</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.00731184333562851</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.007774405181407928</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.489874392747879</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.09093835949897766</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4526470601558685</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02298460155725479</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3102890253067017</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3737034797668457</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2618376910686493</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.4810422956943512</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.4233312904834747</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3634921610355377</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.002621829509735107</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5425232648849487</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2118590772151947</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.02461069449782372</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.006637614220380783</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8301272988319397</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.004617460072040558</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.03267121315002441</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.009584493935108185</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.006061121821403503</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.006865236908197403</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5984403491020203</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1452140063047409</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4752655327320099</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01255813241004944</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3165083229541779</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4000436365604401</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2590619027614594</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.4937326014041901</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.3870424926280975</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3362449109554291</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.007634963840246201</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.5396281480789185</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2098113596439362</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.03238635510206223</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.001385834068059921</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8008255958557129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.002430260181427002</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.006963655352592468</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.003656201064586639</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.003095678985118866</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.0005509257316589355</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5187140703201294</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0845620185136795</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2416966259479523</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.02224305644631386</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2533766031265259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2618509232997894</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2606310546398163</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4686503410339355</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4769833981990814</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3621394336223602</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.003229774534702301</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5239683985710144</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2190918922424316</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.03979714959859848</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0001073740422725677</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7705835700035095</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02165859006345272</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1721424758434296</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0353158712387085</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04094294458627701</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05675920099020004</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.4175061583518982</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.287010669708252</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6779603958129883</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.04800298064947128</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.5641933679580688</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7753652930259705</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2722139358520508</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.399633914232254</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.3005638718605042</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.3714801073074341</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.01454627513885498</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.4942242801189423</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.1561047583818436</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.05910452455282211</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.013268131762743</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8185411691665649</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.003745511174201965</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.02308498322963715</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.009378530085086823</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01146464794874191</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.006849423050880432</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.6723815202713013</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1651082634925842</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3663771748542786</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01934029906988144</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.2281692922115326</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.253780722618103</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2570123374462128</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.4925930202007294</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.4432304799556732</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.3224733769893646</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.009895112365484238</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.5107030272483826</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2202130258083344</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.04909191280603409</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.008162107318639755</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7955173254013062</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.007358163595199585</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.002327904105186462</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.001299817115068436</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.001672811806201935</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.01313813030719757</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9281455278396606</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2185224741697311</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6383401155471802</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01661178469657898</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3505821228027344</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4445079863071442</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2782564759254456</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.50376296043396</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.3306573033332825</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3207294642925262</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.01394416391849518</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.5203219652175903</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.227470338344574</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.03891187161207199</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.0109555684030056</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8091649413108826</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.001516677439212799</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.01786136627197266</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.005551595240831375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.004867240786552429</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.005478721112012863</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5664175748825073</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1327902674674988</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.212384045124054</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02458550408482552</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.2056844830513</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.2078911364078522</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2461429387331009</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.468099445104599</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.503388524055481</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.35117506980896</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.005906239151954651</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.5133099555969238</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.2127061784267426</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.04537763446569443</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.007613647729158401</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7387561202049255</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0174737274646759</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.04097370803356171</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009721241891384125</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.002210229635238647</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.01437634974718094</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7871705293655396</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2747345268726349</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.9242212772369385</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.09566967934370041</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.4345595240592957</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.573144793510437</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2796033620834351</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.5162997245788574</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.2606728374958038</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.330704540014267</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.009882554411888123</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.5162498354911804</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.2142788767814636</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.04049669951200485</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.00174863263964653</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8050976395606995</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.006262563169002533</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0041799396276474</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0002327412366867065</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.005508095026016235</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01362956315279007</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.846138596534729</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.2098162919282913</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6653085350990295</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.019694983959198</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.3560194969177246</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.4720976650714874</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2652702331542969</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.4932631254196167</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.3180662989616394</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3268863260746002</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.01148398220539093</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.5242782235145569</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.2138430178165436</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.02518285065889359</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.006539475172758102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7996866703033447</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.00551440566778183</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.01098082959651947</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.007131356745958328</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01155983656644821</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.439055919647217e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9002379179000854</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1893760114908218</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5391713976860046</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.008970923721790314</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.2957132756710052</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3695849776268005</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.2639966607093811</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.492655336856842</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.3478257954120636</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3121905624866486</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.0008079037070274353</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5121870040893555</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.224528431892395</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.03672014176845551</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.001574378460645676</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8145720362663269</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.002852533012628555</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.003363564610481262</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.007850874215364456</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.005402013659477234</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.007494416087865829</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6153712272644043</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1533095687627792</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3335718214511871</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01107948273420334</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.26340252161026</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.29823899269104</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.261294037103653</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.4868530035018921</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.4422255158424377</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3391402959823608</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.007513102144002914</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5310814380645752</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2200055420398712</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.04787144064903259</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0017702616751194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7969919443130493</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007305685430765152</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01908161491155624</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.006748709827661514</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.001328833401203156</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.009880393743515015</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.706447958946228</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1863500028848648</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.6991147398948669</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.03812510892748833</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3591988980770111</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.4919982850551605</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2482490688562393</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.4766813218593597</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.296518087387085</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3369122743606567</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.001492410898208618</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5270714163780212</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.1982961893081665</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.00493161752820015</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.001067254692316055</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8121014833450317</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.002552621066570282</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0008273646235466003</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.007028624415397644</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.005513332784175873</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.007657852023839951</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.603708028793335</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1495256721973419</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2905099093914032</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01349099725484848</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.2473105192184448</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.2719975411891937</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2558204829692841</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.4794421195983887</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.4628148078918457</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3450192809104919</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.006848972290754318</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5278494954109192</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.2175378799438477</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.04763501882553101</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.002557534724473953</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.8132274150848389</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.000316966325044632</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0004647001624107361</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.005710136145353317</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001841500401496887</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.004154786467552185</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5887911915779114</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1361527889966965</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3245535492897034</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01424698531627655</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.267754077911377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.296238124370575</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2639782130718231</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.4863139688968658</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.4518809914588928</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.3484639525413513</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.005798626691102982</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.5342050194740295</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.2235841751098633</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.04262055456638336</v>
+      </c>
+      <c r="V43" t="n">
+        <v>9.893998503684998e-05</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7142723798751831</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.06165488064289093</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.09231576323509216</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.04214412719011307</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0568663626909256</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.04276483133435249</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4860619604587555</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.1138446927070618</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01096601784229279</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.03435308858752251</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.315590500831604</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4984652996063232</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2682972848415375</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.3969312608242035</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.3840197026729584</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.3630660176277161</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.01928184553980827</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.4523521661758423</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.1457067281007767</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.03729026019573212</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.01582330837845802</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8299442529678345</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.004354581236839294</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.003578275442123413</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.003936804831027985</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.003816969692707062</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.0001181215047836304</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5653979778289795</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.108607605099678</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3735403418540955</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01403065025806427</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.2909686267375946</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3341953456401825</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2641282677650452</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.4897720217704773</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.4557065367698669</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.353293389081955</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.004783898591995239</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5374435782432556</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.224045991897583</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.03585158288478851</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.003446135669946671</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8317842483520508</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.001999121159315109</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.005985789000988007</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.005914300680160522</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.00067901611328125</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.002348989248275757</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5857694149017334</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1214174330234528</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3956127762794495</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.01124709844589233</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.294859766960144</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3452409505844116</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2644039392471313</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.4930647611618042</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.4428510069847107</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.3476454317569733</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.005990307778120041</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.5383617281913757</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.2220611274242401</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.03715899586677551</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.00244472548365593</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7618809938430786</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.02413763850927353</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01705921441316605</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.01123800128698349</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.005506187677383423</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.002120561897754669</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4666708409786224</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.08092157542705536</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1082834824919701</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.01923555135726929</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3072150349617004</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.4074130058288574</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2644922435283661</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.4269862473011017</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.422406017780304</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.3820515871047974</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.003342144191265106</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.475568026304245</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1812055855989456</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.04423723369836807</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.0001295022666454315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8024561405181885</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01208541914820671</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.04128645360469818</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.007462117820978165</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02488448843359947</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02754488214850426</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4607216715812683</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.1008482128381729</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1222150102257729</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.05892810225486755</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.1345687508583069</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.1282566785812378</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.2394386678934097</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.4627419710159302</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.5365803837776184</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.3226397931575775</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.01887690275907516</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.487788200378418</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.200892835855484</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.04121833294630051</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.01588528230786324</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8029105663299561</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.003459788858890533</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.005709439516067505</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.003256853669881821</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.005452163517475128</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.002499409019947052</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4994025826454163</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.06637898087501526</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.2463825345039368</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.02300778403878212</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.2602533400058746</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.272522509098053</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.2601590752601624</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.466764509677887</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.4776036143302917</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.3646257519721985</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.002763494849205017</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5226981639862061</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.2173386216163635</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.03777423501014709</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.0008156187832355499</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7924923896789551</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.003211915493011475</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.05238917097449303</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01145585626363754</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-8.119642734527588e-05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.009563237428665161</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4252373576164246</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1490096747875214</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3629465699195862</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.02126647531986237</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.4089243113994598</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5185613632202148</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.270625501871109</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.4309345185756683</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.3781016767024994</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.378730446100235</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.001483090221881866</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.4951989352703094</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.1845365762710571</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.04339003562927246</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.00535229966044426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8051323294639587</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.006709661334753036</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.01046040654182434</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.009774200618267059</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01530579477548599</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005781408399343491</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8259767889976501</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1821744441986084</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4911018311977386</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.01032085716724396</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2730365693569183</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.3342320621013641</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.2611843347549438</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.4941182434558868</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.3677309453487396</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.3093752562999725</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.006687011569738388</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.5107933282852173</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.2217581272125244</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.04252021014690399</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.002843428403139114</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8148919343948364</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.009105183184146881</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.01013371348381042</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.01287554204463959</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.01940151304006577</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.01241708174347878</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.725765585899353</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1743793934583664</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.4249647557735443</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.01371628046035767</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.2427927404642105</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.2815719842910767</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.258311003446579</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.4980137050151825</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.4074468910694122</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3100781738758087</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.01374088972806931</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.5101354718208313</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.2184785902500153</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.05113422870635986</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.008094411343336105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7933652997016907</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.002022780478000641</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-0.008607253432273865</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.005608223378658295</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.002368107438087463</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.004892576485872269</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.5119614005088806</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.09379784762859344</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1715291738510132</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.02276750281453133</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.2207329571247101</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.2163465619087219</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2482333034276962</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.4569792151451111</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.4989529848098755</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3636889159679413</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.005421575158834457</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.515547513961792</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.209996223449707</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.04365043342113495</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.004831317812204361</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8096233010292053</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.009496118873357773</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.005505077540874481</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0126558355987072</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.01959501206874847</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.01157449185848236</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7654001116752625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1779783219099045</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4517620503902435</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.01164020597934723</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2557462453842163</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.3053436875343323</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2589210867881775</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.496222198009491</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.3871948421001434</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3082966506481171</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.01206937432289124</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.5107569694519043</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.2184500694274902</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.04829827696084976</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.006007146090269089</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.8270794749259949</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.003673061728477478</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01323781907558441</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.007128491997718811</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.004468835890293121</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.003620687872171402</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.7014907002449036</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.173827737569809</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4959879219532013</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.006332404911518097</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3154656291007996</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.4001045525074005</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.2623080611228943</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.4954228699207306</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.377015233039856</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.327922523021698</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.004430763423442841</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.5357503294944763</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.2147164046764374</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.03629385679960251</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-0.0007587634027004242</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8158552646636963</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.00837697833776474</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.01288791000843048</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.01250358670949936</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.01851247251033783</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.01163961365818977</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.7207885384559631</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.173357680439949</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4201697409152985</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.01443679630756378</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.2404548674821854</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.2769514918327332</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.2585293650627136</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.4979820847511292</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.4121318161487579</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.3112644553184509</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.01339906454086304</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.5099248290061951</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.2189701497554779</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.05100233107805252</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.008308384567499161</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8206544518470764</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.002996306866407394</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.03150029480457306</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.008778877556324005</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.01221580803394318</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.005701489746570587</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6797639131546021</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1636732220649719</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3672729134559631</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.02295444905757904</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.2165631651878357</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.2364035695791245</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2561512589454651</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.493396133184433</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.4508977830410004</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3213836848735809</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.009756412357091904</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.5061963796615601</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.2206768989562988</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.04794549942016602</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.009921800345182419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8106220364570618</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.002694539725780487</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.03330838680267334</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.004888426512479782</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.002647317945957184</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.003661714494228363</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.4123859405517578</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1297269612550735</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5299148559570312</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.02398192510008812</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.3563672006130219</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.4449334144592285</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2541597485542297</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.4598400592803955</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.3729988634586334</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.378233939409256</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.001317150890827179</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.5315006971359253</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.1955986320972443</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.02693524584174156</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-0.006859432905912399</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.7983790636062622</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.002768494188785553</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.005290716886520386</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.003694124519824982</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.004950225353240967</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.002073653042316437</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.4821687936782837</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.05338219180703163</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.219197541475296</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.02586856856942177</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.2548715174198151</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.2620073258876801</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2600087821483612</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.4610006511211395</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.4826843738555908</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3666672110557556</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.002609550952911377</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.5192112922668457</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.2157635092735291</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.03729560226202011</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-8.510425686836243e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8178989291191101</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.006482452154159546</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.005966022610664368</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0114997960627079</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.01023132354021072</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.01052973791956902</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.6686053276062012</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.1730566471815109</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4065612554550171</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.005676262080669403</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.275848925113678</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.327596127986908</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2645853757858276</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4971873462200165</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.4051620364189148</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.3210261762142181</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.01077063381671906</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.5284400582313538</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.2199990749359131</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.05285391956567764</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.002868425101041794</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8098303079605103</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.002065710723400116</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.002478644251823425</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.004273813217878342</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.0007508397102355957</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001680001616477966</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5642935037612915</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.117459625005722</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.2943627536296844</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.01763506233692169</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.2629954516887665</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.283297210931778</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.26326584815979</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.4801851212978363</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.4643400907516479</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3550693988800049</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.004247844219207764</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.5316882729530334</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.2232263386249542</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.04080459475517273</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.0005802474915981293</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8068504929542542</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.003170065581798553</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.003772348165512085</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.00359049066901207</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.004087142646312714</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.001235067844390869</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5228374600410461</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.08378987014293671</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2703042924404144</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.02077741920948029</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.2639183104038239</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.2812393009662628</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2614384591579437</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.4723441004753113</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.4716565310955048</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.3610501289367676</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.003291033208370209</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.5264333486557007</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.2194644808769226</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.03847880661487579</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-0.001027185469865799</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.7401920557022095</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.03811537474393845</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.1595600694417953</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.04273056983947754</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.05810311436653137</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.053029865026474</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5153610706329346</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.2105288058519363</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.1211260333657265</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.03284869715571404</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.4776938259601593</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6778635382652283</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.2886526584625244</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.3813396692276001</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.3601188361644745</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.3722542822360992</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0121491514146328</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.4719954133033752</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.1405728310346603</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.06332084536552429</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.004507634788751602</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.8080205917358398</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.008562546223402023</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.007117480039596558</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01173268258571625</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01811008900403976</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.009597618132829666</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.7847358584403992</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.1793069243431091</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4642098248004913</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.01124400645494461</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.2614205777645111</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.314857691526413</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.2597604990005493</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.4955427348613739</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.3807726800441742</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.3085963726043701</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.01027992740273476</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.5107423067092896</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.2195527255535126</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.04651995748281479</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.0049765445291996</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.790154755115509</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.007246717810630798</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.04039934277534485</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.009750232100486755</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.002636134624481201</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.002339717000722885</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.4501813352108002</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.1288676708936691</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2856426537036896</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.01951637864112854</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3860170841217041</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.4901410043239594</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2713567912578583</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.4312452077865601</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.3925194442272186</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.3815041482448578</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.002984009683132172</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.4908660352230072</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.1833420097827911</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.04445545375347137</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.007301505655050278</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8274601101875305</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-0.004232797771692276</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.002852886915206909</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.003802239894866943</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.003588661551475525</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-4.349648952484131e-05</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.5649825930595398</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.1093154102563858</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.363279789686203</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.01451096683740616</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.2877164781093597</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.3278858661651611</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2641659080982208</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.4884181618690491</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.457135409116745</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.353895366191864</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.004528805613517761</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.5369963645935059</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.2240131795406342</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.03643155843019485</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.003257002681493759</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8287234902381897</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.003407090902328491</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.009333044290542603</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.009480331093072891</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.006210401654243469</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.008248992264270782</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6248165369033813</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1529435664415359</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4154819846153259</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.006410062313079834</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.2922086119651794</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.3494596183300018</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2641778290271759</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.4978458881378174</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.4201041162014008</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3351414799690247</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.008863147348165512</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.538131058216095</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.2192498743534088</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.04298959672451019</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.0005817152559757233</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.7803547978401184</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01292948424816132</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.006527654826641083</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.0004468783736228943</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.004317775368690491</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.01215206831693649</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9759550094604492</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.2204666882753372</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.6582443714141846</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.02631773054599762</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.3555329442024231</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4379298388957977</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.2864023447036743</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.5148975253105164</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.3343517184257507</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.3211798071861267</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-0.01572190970182419</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.5183368325233459</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.2390207648277283</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.04422026127576828</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-0.01445078477263451</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.804656982421875</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-0.00366147980093956</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.0047869011759758</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.003244072198867798</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.005706213414669037</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.002669394016265869</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.5009407997131348</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.06645140051841736</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2547610700130463</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.02256190776824951</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.2632555961608887</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2780771255493164</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2604055106639862</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.4678874015808105</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.4760188460350037</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.364262580871582</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.00278925895690918</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.5234476327896118</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.2174777984619141</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.03741795569658279</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.001135710626840591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.7809104323387146</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01758906245231628</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.01865079253911972</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.009023465216159821</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.002289138734340668</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.005276493728160858</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.4798814058303833</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.09362265467643738</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1586658954620361</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01879020035266876</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.3451423048973083</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.4410206079483032</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.2675226330757141</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.428562730550766</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.421682596206665</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.3850701153278351</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-0.003277145326137543</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.4799120724201202</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.18204665184021</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.04668701440095901</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-0.008045051246881485</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.7697685956954956</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.02646308206021786</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1853713393211365</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.04042851179838181</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.04900319501757622</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0644119456410408</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.4243658185005188</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.2667768001556396</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5975080132484436</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.04671261087059975</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.5539790987968445</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7606293559074402</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.273165225982666</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.3926279842853546</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.3005366027355194</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.3667081892490387</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.01911453902721405</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.4917703866958618</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.1509854346513748</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.06075774878263474</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.01260289922356606</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.7288467288017273</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.04389788955450058</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1745605766773224</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.04444492608308792</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.06821583211421967</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.06115187704563141</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.5319935083389282</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1955987960100174</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.08742664009332657</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.03235508874058723</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.478609561920166</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.6906126141548157</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.2868188619613647</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.3719923198223114</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.3806972503662109</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3821540176868439</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01596444100141525</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.4617907106876373</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.142871767282486</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.05860473960638046</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.007270369678735733</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.7882208228111267</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.0001219622790813446</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.07334397733211517</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01818610727787018</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01104547083377838</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.01797707378864288</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3894554972648621</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.324358344078064</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.8028631210327148</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.05461073666810989</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.4902271628379822</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.6777676343917847</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.2556560933589935</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.4405651688575745</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.2928081154823303</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3620272874832153</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.0006998702883720398</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.51573646068573</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.1827676445245743</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.04434216767549515</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.01400506868958473</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.8240714073181152</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.01036395132541656</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.01253893971443176</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.0022263303399086</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.01481183618307114</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-0.01254615187644958</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.4321401417255402</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.0644262433052063</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3667309880256653</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.01730888336896896</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.3005267083644867</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.3370349705219269</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.2628135085105896</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.4590210914611816</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.4718389213085175</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.393322080373764</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-0.001786857843399048</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.5295966267585754</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.2163504362106323</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.02715002745389938</v>
+      </c>
+      <c r="V74" t="n">
+        <v>-0.006937753409147263</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.8205361366271973</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.004238154739141464</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.06399327516555786</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.001705393195152283</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.0002011507749557495</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.003262810409069061</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.5906803011894226</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.1252215355634689</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.2423438429832458</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.0445546843111515</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.162971556186676</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.145787701010704</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.2565220296382904</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.4804032146930695</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.5352073907852173</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.3464758396148682</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.001714326441287994</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.493037074804306</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.2176882326602936</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.03998495638370514</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.0129673071205616</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.8061578273773193</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.007419109344482422</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.009185574948787689</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01053467392921448</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.01635774970054626</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.007212840020656586</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8104282021522522</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.1810773611068726</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4808113276958466</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.01067464798688889</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.2686589658260345</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.3269610106945038</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.2606685757637024</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.4946264922618866</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.3726051449775696</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.3090453147888184</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.008041471242904663</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.5107442140579224</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.22091343998909</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.04405258595943451</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.003647085279226303</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.8171732425689697</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.001394670456647873</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02259010076522827</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.001189414411783218</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.006784610450267792</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.008400678634643555</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.4237113893032074</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.1125300526618958</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5063576102256775</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.02334018051624298</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.3354336321353912</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.4161956012248993</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.2539763450622559</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.4625997543334961</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.3926268815994263</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.3800787925720215</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.0002386495471000671</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.5350540280342102</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.2004075646400452</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.02239714935421944</v>
+      </c>
+      <c r="V77" t="n">
+        <v>-0.007571335881948471</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8187360167503357</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.005470715463161469</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.02318903803825378</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01093904674053192</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.01510656625032425</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.00852486863732338</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.7021461725234985</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.1689978092908859</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3984567224979401</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.01767870783805847</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.2304059416055679</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.2585677802562714</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.2587795555591583</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.4966333508491516</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.4300283193588257</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.3162821829319</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.01183344051241875</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.5088651776313782</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.2203513383865356</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.04973547160625458</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.009002972394227982</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.7985404133796692</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.005463186651468277</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.008764863014221191</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.005473952740430832</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.01011811941862106</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.007371976971626282</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.4449195563793182</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.08165808022022247</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.2878451645374298</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.01429170370101929</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.3477353453636169</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.4213631749153137</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.2677579820156097</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.4408658146858215</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.432281494140625</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3907338380813599</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-0.003107592463493347</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.4975391328334808</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.1975376307964325</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.03744123876094818</v>
+      </c>
+      <c r="V79" t="n">
+        <v>-0.00788642093539238</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.8215616941452026</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.002760071307420731</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.05482356250286102</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.003170080482959747</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.003029137849807739</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.001070395112037659</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.6177381873130798</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.1379817575216293</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2814693450927734</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.03807496279478073</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.1798564046621323</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1734059154987335</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.25677689909935</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.4846972227096558</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.5108337998390198</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3397128880023956</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.003562301397323608</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.4982758164405823</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.2193920612335205</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.04223079979419708</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.01157644018530846</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.8093348145484924</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.005422960966825485</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.004197366535663605</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.002264004200696945</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.007337838411331177</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.004998460412025452</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.4792997539043427</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.05335017666220665</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2741856873035431</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.02398137375712395</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.2700125575065613</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.2894734740257263</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.2606942653656006</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.4667609035968781</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.4764584004878998</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.3677149415016174</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.002545811235904694</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.5253897905349731</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.2166088223457336</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.03476129472255707</v>
+      </c>
+      <c r="V81" t="n">
+        <v>-0.002642009407281876</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.7994717955589294</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0001206360757350922</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.04307711124420166</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01032166182994843</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.002499312162399292</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.008590124547481537</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.4075995087623596</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.1344143003225327</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4177522957324982</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.01911324262619019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.4019167423248291</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4984115660190582</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.2674987316131592</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.4371397495269775</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.3913041055202484</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.3818281292915344</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-0.0009542778134346008</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.5020319819450378</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.1932439506053925</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.03843718767166138</v>
+      </c>
+      <c r="V82" t="n">
+        <v>-0.004360314458608627</v>
       </c>
     </row>
   </sheetData>
